--- a/pred_ohlcv/54/2019-10-21 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 BTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="C2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="D2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="E2" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>97.11539999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>8942.666666666666</v>
+        <v>8941.833333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9000</v>
+        <v>8905</v>
       </c>
       <c r="C3" t="n">
-        <v>9000</v>
+        <v>8905</v>
       </c>
       <c r="D3" t="n">
-        <v>9000</v>
+        <v>8905</v>
       </c>
       <c r="E3" t="n">
-        <v>9000</v>
+        <v>8905</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3259</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>8945.083333333334</v>
+        <v>8942.666666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>9000</v>
       </c>
       <c r="F4" t="n">
-        <v>5.90955555</v>
+        <v>52.3259</v>
       </c>
       <c r="G4" t="n">
-        <v>8947.5</v>
+        <v>8945.083333333334</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>9000</v>
       </c>
       <c r="F5" t="n">
-        <v>43.7637</v>
+        <v>5.90955555</v>
       </c>
       <c r="G5" t="n">
-        <v>8949.916666666666</v>
+        <v>8947.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="C6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="E6" t="n">
-        <v>9070</v>
+        <v>9000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>43.7637</v>
       </c>
       <c r="G6" t="n">
-        <v>8952</v>
+        <v>8949.916666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="C7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="D7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="E7" t="n">
-        <v>8940</v>
+        <v>9070</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>8952.333333333334</v>
+        <v>8952</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="C8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="D8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="E8" t="n">
-        <v>9045</v>
+        <v>8940</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>8953.916666666666</v>
+        <v>8952.333333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="C9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="D9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="E9" t="n">
-        <v>9000</v>
+        <v>9045</v>
       </c>
       <c r="F9" t="n">
-        <v>22.1975</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>8954.75</v>
+        <v>8953.916666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="E10" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F10" t="n">
-        <v>11.802</v>
+        <v>22.1975</v>
       </c>
       <c r="G10" t="n">
-        <v>8955.083333333334</v>
+        <v>8954.75</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="C11" t="n">
-        <v>8905</v>
+        <v>8995</v>
       </c>
       <c r="D11" t="n">
-        <v>9005</v>
+        <v>8995</v>
       </c>
       <c r="E11" t="n">
-        <v>8905</v>
+        <v>8995</v>
       </c>
       <c r="F11" t="n">
-        <v>233.3042</v>
+        <v>11.802</v>
       </c>
       <c r="G11" t="n">
-        <v>8953.916666666666</v>
+        <v>8955.083333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8905</v>
+        <v>9000</v>
       </c>
       <c r="C12" t="n">
         <v>8905</v>
       </c>
       <c r="D12" t="n">
-        <v>8905</v>
+        <v>9005</v>
       </c>
       <c r="E12" t="n">
         <v>8905</v>
       </c>
       <c r="F12" t="n">
-        <v>164</v>
+        <v>233.3042</v>
       </c>
       <c r="G12" t="n">
-        <v>8952.75</v>
+        <v>8953.916666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8930</v>
+        <v>8905</v>
       </c>
       <c r="C13" t="n">
-        <v>8920</v>
+        <v>8905</v>
       </c>
       <c r="D13" t="n">
-        <v>8930</v>
+        <v>8905</v>
       </c>
       <c r="E13" t="n">
-        <v>8920</v>
+        <v>8905</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="G13" t="n">
-        <v>8951.833333333334</v>
+        <v>8952.75</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9040</v>
+        <v>8930</v>
       </c>
       <c r="C14" t="n">
-        <v>9040</v>
+        <v>8920</v>
       </c>
       <c r="D14" t="n">
-        <v>9040</v>
+        <v>8930</v>
       </c>
       <c r="E14" t="n">
-        <v>9040</v>
+        <v>8920</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>8952.833333333334</v>
+        <v>8951.833333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="C15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="D15" t="n">
-        <v>8925</v>
+        <v>9040</v>
       </c>
       <c r="E15" t="n">
-        <v>8920</v>
+        <v>9040</v>
       </c>
       <c r="F15" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>8952.833333333334</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,18 +825,21 @@
         <v>8920</v>
       </c>
       <c r="D16" t="n">
-        <v>8920</v>
+        <v>8925</v>
       </c>
       <c r="E16" t="n">
         <v>8920</v>
       </c>
       <c r="F16" t="n">
-        <v>65.5</v>
+        <v>123</v>
       </c>
       <c r="G16" t="n">
-        <v>8951.5</v>
+        <v>8952.833333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>8920</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>65.5</v>
       </c>
       <c r="G17" t="n">
-        <v>8950.25</v>
+        <v>8951.5</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>8920</v>
       </c>
       <c r="F18" t="n">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>8949</v>
+        <v>8950.25</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="C19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="D19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="E19" t="n">
-        <v>8955</v>
+        <v>8920</v>
       </c>
       <c r="F19" t="n">
-        <v>5.581</v>
+        <v>103</v>
       </c>
       <c r="G19" t="n">
-        <v>8948.333333333334</v>
+        <v>8949</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8945</v>
+        <v>8955</v>
       </c>
       <c r="C20" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="D20" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="E20" t="n">
-        <v>8945</v>
+        <v>8955</v>
       </c>
       <c r="F20" t="n">
-        <v>48.6047</v>
+        <v>5.581</v>
       </c>
       <c r="G20" t="n">
-        <v>8948.75</v>
+        <v>8948.333333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9010</v>
+        <v>8945</v>
       </c>
       <c r="C21" t="n">
-        <v>9010</v>
+        <v>8950</v>
       </c>
       <c r="D21" t="n">
-        <v>9010</v>
+        <v>8950</v>
       </c>
       <c r="E21" t="n">
-        <v>9010</v>
+        <v>8945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2228</v>
+        <v>48.6047</v>
       </c>
       <c r="G21" t="n">
-        <v>8950.083333333334</v>
+        <v>8948.75</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="C22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="D22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="E22" t="n">
-        <v>8925</v>
+        <v>9010</v>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>0.2228</v>
       </c>
       <c r="G22" t="n">
-        <v>8950</v>
+        <v>8950.083333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>8925</v>
       </c>
       <c r="F23" t="n">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>8949.916666666666</v>
+        <v>8950</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="C24" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="D24" t="n">
-        <v>8935</v>
+        <v>8925</v>
       </c>
       <c r="E24" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="F24" t="n">
-        <v>22.0776</v>
+        <v>230</v>
       </c>
       <c r="G24" t="n">
         <v>8949.916666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8995</v>
+        <v>8935</v>
       </c>
       <c r="C25" t="n">
+        <v>8930</v>
+      </c>
+      <c r="D25" t="n">
         <v>8935</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9025</v>
       </c>
       <c r="E25" t="n">
         <v>8930</v>
       </c>
       <c r="F25" t="n">
-        <v>337.6297</v>
+        <v>22.0776</v>
       </c>
       <c r="G25" t="n">
-        <v>8950</v>
+        <v>8949.916666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9010</v>
+        <v>8995</v>
       </c>
       <c r="C26" t="n">
-        <v>9010</v>
+        <v>8935</v>
       </c>
       <c r="D26" t="n">
-        <v>9010</v>
+        <v>9025</v>
       </c>
       <c r="E26" t="n">
-        <v>9010</v>
+        <v>8930</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2362</v>
+        <v>337.6297</v>
       </c>
       <c r="G26" t="n">
-        <v>8951.333333333334</v>
+        <v>8950</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="C27" t="n">
-        <v>8985</v>
+        <v>9010</v>
       </c>
       <c r="D27" t="n">
-        <v>8985</v>
+        <v>9010</v>
       </c>
       <c r="E27" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="F27" t="n">
-        <v>32.579</v>
+        <v>0.2362</v>
       </c>
       <c r="G27" t="n">
-        <v>8952.25</v>
+        <v>8951.333333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="C28" t="n">
-        <v>8950</v>
+        <v>8985</v>
       </c>
       <c r="D28" t="n">
-        <v>8950</v>
+        <v>8985</v>
       </c>
       <c r="E28" t="n">
-        <v>8950</v>
+        <v>8980</v>
       </c>
       <c r="F28" t="n">
-        <v>85.0809</v>
+        <v>32.579</v>
       </c>
       <c r="G28" t="n">
-        <v>8952.583333333334</v>
+        <v>8952.25</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="C29" t="n">
-        <v>9015</v>
+        <v>8950</v>
       </c>
       <c r="D29" t="n">
-        <v>9015</v>
+        <v>8950</v>
       </c>
       <c r="E29" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="F29" t="n">
-        <v>8.8452</v>
+        <v>85.0809</v>
       </c>
       <c r="G29" t="n">
-        <v>8954</v>
+        <v>8952.583333333334</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="C30" t="n">
+        <v>9015</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9015</v>
+      </c>
+      <c r="E30" t="n">
         <v>8960</v>
       </c>
-      <c r="D30" t="n">
-        <v>8960</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8950</v>
-      </c>
       <c r="F30" t="n">
-        <v>33.9785</v>
+        <v>8.8452</v>
       </c>
       <c r="G30" t="n">
-        <v>8954.5</v>
+        <v>8954</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="C31" t="n">
         <v>8960</v>
@@ -1171,15 +1263,18 @@
         <v>8960</v>
       </c>
       <c r="E31" t="n">
-        <v>8960</v>
+        <v>8950</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>33.9785</v>
       </c>
       <c r="G31" t="n">
-        <v>8955</v>
+        <v>8954.5</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>8960</v>
       </c>
       <c r="F32" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>8955.5</v>
+        <v>8955</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>8960</v>
       </c>
       <c r="C33" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="D33" t="n">
         <v>8960</v>
       </c>
       <c r="E33" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="F33" t="n">
-        <v>63.5</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
-        <v>8955.833333333334</v>
+        <v>8955.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="C34" t="n">
         <v>8950</v>
       </c>
       <c r="D34" t="n">
-        <v>8950</v>
+        <v>8960</v>
       </c>
       <c r="E34" t="n">
         <v>8950</v>
       </c>
       <c r="F34" t="n">
-        <v>130</v>
+        <v>63.5</v>
       </c>
       <c r="G34" t="n">
-        <v>8956.166666666666</v>
+        <v>8955.833333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>8950</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G35" t="n">
-        <v>8956.5</v>
+        <v>8956.166666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>8950</v>
       </c>
       <c r="C36" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="D36" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="E36" t="n">
         <v>8950</v>
       </c>
       <c r="F36" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>8956.916666666666</v>
+        <v>8956.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="C37" t="n">
         <v>8955</v>
@@ -1327,15 +1437,18 @@
         <v>8955</v>
       </c>
       <c r="E37" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="F37" t="n">
-        <v>33.5</v>
+        <v>91</v>
       </c>
       <c r="G37" t="n">
-        <v>8957.333333333334</v>
+        <v>8956.916666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>8955</v>
       </c>
       <c r="F38" t="n">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="G38" t="n">
-        <v>8957.666666666666</v>
+        <v>8957.333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="C39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="D39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="E39" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>32.5</v>
       </c>
       <c r="G39" t="n">
-        <v>8958.333333333334</v>
+        <v>8957.666666666666</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="C40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="D40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="E40" t="n">
-        <v>8990</v>
+        <v>8975</v>
       </c>
       <c r="F40" t="n">
-        <v>22.041</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>8959.25</v>
+        <v>8958.333333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>8990</v>
       </c>
       <c r="F41" t="n">
-        <v>44</v>
+        <v>22.041</v>
       </c>
       <c r="G41" t="n">
-        <v>8960.166666666666</v>
+        <v>8959.25</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>8990</v>
       </c>
       <c r="C42" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="D42" t="n">
         <v>8990</v>
       </c>
       <c r="E42" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="F42" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>8960.666666666666</v>
+        <v>8960.166666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="C43" t="n">
         <v>8965</v>
       </c>
       <c r="D43" t="n">
-        <v>8965</v>
+        <v>8990</v>
       </c>
       <c r="E43" t="n">
         <v>8965</v>
       </c>
       <c r="F43" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43" t="n">
-        <v>8961.25</v>
+        <v>8960.666666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>8965</v>
       </c>
       <c r="F44" t="n">
-        <v>38.5</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>8962.083333333334</v>
+        <v>8961.25</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9015</v>
+        <v>8965</v>
       </c>
       <c r="C45" t="n">
         <v>8965</v>
       </c>
       <c r="D45" t="n">
-        <v>9015</v>
+        <v>8965</v>
       </c>
       <c r="E45" t="n">
         <v>8965</v>
       </c>
       <c r="F45" t="n">
-        <v>110.8614</v>
+        <v>38.5</v>
       </c>
       <c r="G45" t="n">
-        <v>8962.916666666666</v>
+        <v>8962.083333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8970</v>
+        <v>9015</v>
       </c>
       <c r="C46" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="D46" t="n">
-        <v>8970</v>
+        <v>9015</v>
       </c>
       <c r="E46" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="F46" t="n">
-        <v>332.9175</v>
+        <v>110.8614</v>
       </c>
       <c r="G46" t="n">
-        <v>8963.833333333334</v>
+        <v>8962.916666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E47" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9975000000000001</v>
+        <v>332.9175</v>
       </c>
       <c r="G47" t="n">
-        <v>8964.666666666666</v>
+        <v>8963.833333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="C48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="D48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="E48" t="n">
-        <v>8970</v>
+        <v>8965</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>8964.333333333334</v>
+        <v>8964.666666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>8970</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0255</v>
+        <v>60</v>
       </c>
       <c r="G49" t="n">
-        <v>8963.916666666666</v>
+        <v>8964.333333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C50" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D50" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E50" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F50" t="n">
-        <v>70.2487</v>
+        <v>0.0255</v>
       </c>
       <c r="G50" t="n">
-        <v>8963.583333333334</v>
+        <v>8963.916666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="C51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="D51" t="n">
-        <v>9010</v>
+        <v>8980</v>
       </c>
       <c r="E51" t="n">
-        <v>9010</v>
+        <v>8975</v>
       </c>
       <c r="F51" t="n">
-        <v>10.9267</v>
+        <v>70.2487</v>
       </c>
       <c r="G51" t="n">
-        <v>8964.583333333334</v>
+        <v>8963.583333333334</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="C52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="D52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="E52" t="n">
-        <v>8980</v>
+        <v>9010</v>
       </c>
       <c r="F52" t="n">
-        <v>5.5841</v>
+        <v>10.9267</v>
       </c>
       <c r="G52" t="n">
-        <v>8965.083333333334</v>
+        <v>8964.583333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C53" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="D53" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E53" t="n">
-        <v>8965</v>
+        <v>8980</v>
       </c>
       <c r="F53" t="n">
-        <v>285.6626</v>
+        <v>5.5841</v>
       </c>
       <c r="G53" t="n">
-        <v>8964.75</v>
+        <v>8965.083333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C54" t="n">
         <v>8965</v>
       </c>
       <c r="D54" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E54" t="n">
         <v>8965</v>
       </c>
       <c r="F54" t="n">
-        <v>57.5</v>
+        <v>285.6626</v>
       </c>
       <c r="G54" t="n">
-        <v>8965.583333333334</v>
+        <v>8964.75</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>8965</v>
       </c>
       <c r="F55" t="n">
-        <v>3.1399</v>
+        <v>57.5</v>
       </c>
       <c r="G55" t="n">
-        <v>8966.416666666666</v>
+        <v>8965.583333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="C56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="E56" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F56" t="n">
-        <v>4.4159</v>
+        <v>3.1399</v>
       </c>
       <c r="G56" t="n">
-        <v>8968.5</v>
+        <v>8966.416666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="C57" t="n">
         <v>8980</v>
       </c>
       <c r="D57" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="E57" t="n">
         <v>8980</v>
       </c>
       <c r="F57" t="n">
-        <v>9.148099999999999</v>
+        <v>4.4159</v>
       </c>
       <c r="G57" t="n">
-        <v>8968.25</v>
+        <v>8968.5</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9010</v>
+        <v>8985</v>
       </c>
       <c r="C58" t="n">
+        <v>8980</v>
+      </c>
+      <c r="D58" t="n">
         <v>8985</v>
       </c>
-      <c r="D58" t="n">
-        <v>9045</v>
-      </c>
       <c r="E58" t="n">
-        <v>8985</v>
+        <v>8980</v>
       </c>
       <c r="F58" t="n">
-        <v>324.17791127</v>
+        <v>9.148099999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>8968.083333333334</v>
+        <v>8968.25</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9040</v>
+        <v>9010</v>
       </c>
       <c r="C59" t="n">
-        <v>9040</v>
+        <v>8985</v>
       </c>
       <c r="D59" t="n">
-        <v>9040</v>
+        <v>9045</v>
       </c>
       <c r="E59" t="n">
-        <v>9040</v>
+        <v>8985</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>324.17791127</v>
       </c>
       <c r="G59" t="n">
-        <v>8968.75</v>
+        <v>8968.083333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9000</v>
+        <v>9040</v>
       </c>
       <c r="C60" t="n">
-        <v>9005</v>
+        <v>9040</v>
       </c>
       <c r="D60" t="n">
-        <v>9005</v>
+        <v>9040</v>
       </c>
       <c r="E60" t="n">
-        <v>9000</v>
+        <v>9040</v>
       </c>
       <c r="F60" t="n">
-        <v>99.40179999999999</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>8968.833333333334</v>
+        <v>8968.75</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="C61" t="n">
         <v>9005</v>
@@ -1951,15 +2133,18 @@
         <v>9005</v>
       </c>
       <c r="E61" t="n">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="F61" t="n">
-        <v>3.0075</v>
+        <v>99.40179999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>8968.916666666666</v>
+        <v>8968.833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>9005</v>
       </c>
       <c r="C62" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="D62" t="n">
         <v>9005</v>
       </c>
       <c r="E62" t="n">
-        <v>8980</v>
+        <v>9005</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>3.0075</v>
       </c>
       <c r="G62" t="n">
-        <v>8970.166666666666</v>
+        <v>8968.916666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>9005</v>
+      </c>
+      <c r="C63" t="n">
         <v>8980</v>
       </c>
-      <c r="C63" t="n">
-        <v>8975</v>
-      </c>
       <c r="D63" t="n">
+        <v>9005</v>
+      </c>
+      <c r="E63" t="n">
         <v>8980</v>
       </c>
-      <c r="E63" t="n">
-        <v>8975</v>
-      </c>
       <c r="F63" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="G63" t="n">
-        <v>8969.75</v>
+        <v>8970.166666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C64" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D64" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E64" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F64" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G64" t="n">
-        <v>8969.166666666666</v>
+        <v>8969.75</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="C65" t="n">
         <v>8965</v>
       </c>
       <c r="D65" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="E65" t="n">
         <v>8965</v>
       </c>
       <c r="F65" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G65" t="n">
-        <v>8968.583333333334</v>
+        <v>8969.166666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>8965</v>
       </c>
       <c r="F66" t="n">
-        <v>682.3686</v>
+        <v>46</v>
       </c>
       <c r="G66" t="n">
-        <v>8966.833333333334</v>
+        <v>8968.583333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>8965</v>
       </c>
       <c r="F67" t="n">
-        <v>23.2463</v>
+        <v>682.3686</v>
       </c>
       <c r="G67" t="n">
-        <v>8967.25</v>
+        <v>8966.833333333334</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="C68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="D68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="E68" t="n">
-        <v>9035</v>
+        <v>8965</v>
       </c>
       <c r="F68" t="n">
-        <v>0.34</v>
+        <v>23.2463</v>
       </c>
       <c r="G68" t="n">
-        <v>8967.083333333334</v>
+        <v>8967.25</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="C69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="D69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="E69" t="n">
-        <v>8965</v>
+        <v>9035</v>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v>0.34</v>
       </c>
       <c r="G69" t="n">
-        <v>8966.5</v>
+        <v>8967.083333333334</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="C70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="D70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="E70" t="n">
-        <v>8975</v>
+        <v>8965</v>
       </c>
       <c r="F70" t="n">
-        <v>16.2487</v>
+        <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>8966.166666666666</v>
+        <v>8966.5</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E71" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2272</v>
+        <v>16.2487</v>
       </c>
       <c r="G71" t="n">
-        <v>8967.416666666666</v>
+        <v>8966.166666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>8980</v>
       </c>
       <c r="F72" t="n">
-        <v>5.7807</v>
+        <v>2.2272</v>
       </c>
       <c r="G72" t="n">
-        <v>8968.666666666666</v>
+        <v>8967.416666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E73" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F73" t="n">
-        <v>86.3215</v>
+        <v>5.7807</v>
       </c>
       <c r="G73" t="n">
-        <v>8969.583333333334</v>
+        <v>8968.666666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="C74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="D74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="E74" t="n">
-        <v>9035</v>
+        <v>8975</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01</v>
+        <v>86.3215</v>
       </c>
       <c r="G74" t="n">
-        <v>8969.5</v>
+        <v>8969.583333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="C75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="D75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="E75" t="n">
-        <v>8975</v>
+        <v>9035</v>
       </c>
       <c r="F75" t="n">
-        <v>2.639</v>
+        <v>0.01</v>
       </c>
       <c r="G75" t="n">
-        <v>8970.416666666666</v>
+        <v>8969.5</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E76" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01949861</v>
+        <v>2.639</v>
       </c>
       <c r="G76" t="n">
-        <v>8971.25</v>
+        <v>8970.416666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="C77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="D77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="E77" t="n">
-        <v>8975</v>
+        <v>8970</v>
       </c>
       <c r="F77" t="n">
-        <v>5.7798</v>
+        <v>0.01949861</v>
       </c>
       <c r="G77" t="n">
-        <v>8972.166666666666</v>
+        <v>8971.25</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>8975</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1114</v>
+        <v>5.7798</v>
       </c>
       <c r="G78" t="n">
-        <v>8973.083333333334</v>
+        <v>8972.166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>8975</v>
       </c>
       <c r="F79" t="n">
-        <v>6.9518</v>
+        <v>0.1114</v>
       </c>
       <c r="G79" t="n">
-        <v>8973.416666666666</v>
+        <v>8973.083333333334</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E80" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F80" t="n">
         <v>6.9518</v>
       </c>
       <c r="G80" t="n">
-        <v>8973.75</v>
+        <v>8973.416666666666</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>8970</v>
       </c>
       <c r="F81" t="n">
-        <v>12.988</v>
+        <v>6.9518</v>
       </c>
       <c r="G81" t="n">
-        <v>8973.083333333334</v>
+        <v>8973.75</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="C82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="D82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="E82" t="n">
-        <v>9020</v>
+        <v>8970</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>12.988</v>
       </c>
       <c r="G82" t="n">
-        <v>8974.666666666666</v>
+        <v>8973.083333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8970</v>
+        <v>9020</v>
       </c>
       <c r="C83" t="n">
-        <v>8970</v>
+        <v>9020</v>
       </c>
       <c r="D83" t="n">
-        <v>8970</v>
+        <v>9020</v>
       </c>
       <c r="E83" t="n">
-        <v>8970</v>
+        <v>9020</v>
       </c>
       <c r="F83" t="n">
-        <v>10.991</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>8975.416666666666</v>
+        <v>8974.666666666666</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>8970</v>
       </c>
       <c r="F84" t="n">
-        <v>228.9822</v>
+        <v>10.991</v>
       </c>
       <c r="G84" t="n">
-        <v>8976.083333333334</v>
+        <v>8975.416666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="C85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="D85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="E85" t="n">
-        <v>9025</v>
+        <v>8970</v>
       </c>
       <c r="F85" t="n">
-        <v>35.3277</v>
+        <v>228.9822</v>
       </c>
       <c r="G85" t="n">
-        <v>8977.583333333334</v>
+        <v>8976.083333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="C86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="D86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="E86" t="n">
-        <v>8975</v>
+        <v>9025</v>
       </c>
       <c r="F86" t="n">
-        <v>73.736</v>
+        <v>35.3277</v>
       </c>
       <c r="G86" t="n">
-        <v>8977</v>
+        <v>8977.583333333334</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>8975</v>
       </c>
       <c r="F87" t="n">
-        <v>4.6265</v>
+        <v>73.736</v>
       </c>
       <c r="G87" t="n">
-        <v>8976.833333333334</v>
+        <v>8977</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="C88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="D88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="E88" t="n">
-        <v>8980</v>
+        <v>8975</v>
       </c>
       <c r="F88" t="n">
-        <v>14.6693</v>
+        <v>4.6265</v>
       </c>
       <c r="G88" t="n">
-        <v>8977.333333333334</v>
+        <v>8976.833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="C89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="D89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="E89" t="n">
-        <v>8975</v>
+        <v>8980</v>
       </c>
       <c r="F89" t="n">
-        <v>99.7778</v>
+        <v>14.6693</v>
       </c>
       <c r="G89" t="n">
-        <v>8976.666666666666</v>
+        <v>8977.333333333334</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>8975</v>
       </c>
       <c r="F90" t="n">
-        <v>51.1921</v>
+        <v>99.7778</v>
       </c>
       <c r="G90" t="n">
-        <v>8976.916666666666</v>
+        <v>8976.666666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>8975</v>
       </c>
       <c r="F91" t="n">
-        <v>54</v>
+        <v>51.1921</v>
       </c>
       <c r="G91" t="n">
-        <v>8977.166666666666</v>
+        <v>8976.916666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>8975</v>
       </c>
       <c r="F92" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G92" t="n">
-        <v>8977.416666666666</v>
+        <v>8977.166666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>8975</v>
       </c>
       <c r="F93" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G93" t="n">
-        <v>8977.833333333334</v>
+        <v>8977.416666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>8975</v>
       </c>
       <c r="F94" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
-        <v>8978.25</v>
+        <v>8977.833333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>8975</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G95" t="n">
-        <v>8978.666666666666</v>
+        <v>8978.25</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>8975</v>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>8979</v>
+        <v>8978.666666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>8975</v>
       </c>
       <c r="F97" t="n">
-        <v>69.2428</v>
+        <v>48</v>
       </c>
       <c r="G97" t="n">
-        <v>8979.333333333334</v>
+        <v>8979</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>8975</v>
       </c>
       <c r="F98" t="n">
-        <v>68</v>
+        <v>69.2428</v>
       </c>
       <c r="G98" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.333333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>8975</v>
       </c>
       <c r="F99" t="n">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="G99" t="n">
         <v>8979.666666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>8975</v>
       </c>
       <c r="F100" t="n">
-        <v>212.5341</v>
+        <v>210</v>
       </c>
       <c r="G100" t="n">
-        <v>8979.416666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>8975</v>
       </c>
       <c r="F101" t="n">
-        <v>398.2513</v>
+        <v>212.5341</v>
       </c>
       <c r="G101" t="n">
-        <v>8979.166666666666</v>
+        <v>8979.416666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>8975</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6615</v>
+        <v>398.2513</v>
       </c>
       <c r="G102" t="n">
-        <v>8979.333333333334</v>
+        <v>8979.166666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>8975</v>
       </c>
       <c r="F103" t="n">
-        <v>173.9937</v>
+        <v>1.6615</v>
       </c>
       <c r="G103" t="n">
-        <v>8979.5</v>
+        <v>8979.333333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>8975</v>
       </c>
       <c r="F104" t="n">
-        <v>8.062799999999999</v>
+        <v>173.9937</v>
       </c>
       <c r="G104" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.5</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="C105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="D105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="E105" t="n">
-        <v>8970</v>
+        <v>8975</v>
       </c>
       <c r="F105" t="n">
-        <v>143.7767</v>
+        <v>8.062799999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>8979.75</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>8970</v>
       </c>
       <c r="C106" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D106" t="n">
         <v>8970</v>
       </c>
       <c r="E106" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F106" t="n">
-        <v>335.9023</v>
+        <v>143.7767</v>
       </c>
       <c r="G106" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.75</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="C107" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D107" t="n">
-        <v>8980</v>
+        <v>8970</v>
       </c>
       <c r="E107" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F107" t="n">
-        <v>17.9435</v>
+        <v>335.9023</v>
       </c>
       <c r="G107" t="n">
-        <v>8979.916666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="C108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="E108" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F108" t="n">
-        <v>34</v>
+        <v>17.9435</v>
       </c>
       <c r="G108" t="n">
         <v>8979.916666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>8970</v>
       </c>
       <c r="C109" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="D109" t="n">
         <v>8970</v>
       </c>
       <c r="E109" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="F109" t="n">
-        <v>172.6283</v>
+        <v>34</v>
       </c>
       <c r="G109" t="n">
-        <v>8979.833333333334</v>
+        <v>8979.916666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C110" t="n">
         <v>8965</v>
       </c>
       <c r="D110" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E110" t="n">
         <v>8965</v>
       </c>
       <c r="F110" t="n">
-        <v>276.0698</v>
+        <v>172.6283</v>
       </c>
       <c r="G110" t="n">
-        <v>8979.666666666666</v>
+        <v>8979.833333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>8965</v>
       </c>
       <c r="F111" t="n">
-        <v>208.0764</v>
+        <v>276.0698</v>
       </c>
       <c r="G111" t="n">
-        <v>8978.916666666666</v>
+        <v>8979.666666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>8965</v>
       </c>
       <c r="F112" t="n">
-        <v>29</v>
+        <v>208.0764</v>
       </c>
       <c r="G112" t="n">
-        <v>8978.666666666666</v>
+        <v>8978.916666666666</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="C113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="D113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="E113" t="n">
-        <v>8985</v>
+        <v>8965</v>
       </c>
       <c r="F113" t="n">
-        <v>10.1163</v>
+        <v>29</v>
       </c>
       <c r="G113" t="n">
-        <v>8979</v>
+        <v>8978.666666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="C114" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="D114" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="E114" t="n">
-        <v>8965</v>
+        <v>8985</v>
       </c>
       <c r="F114" t="n">
-        <v>36</v>
+        <v>10.1163</v>
       </c>
       <c r="G114" t="n">
         <v>8979</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>8965</v>
       </c>
       <c r="F115" t="n">
-        <v>43.5</v>
+        <v>36</v>
       </c>
       <c r="G115" t="n">
         <v>8979</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="C116" t="n">
         <v>8965</v>
       </c>
       <c r="D116" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="E116" t="n">
         <v>8965</v>
       </c>
       <c r="F116" t="n">
-        <v>199</v>
+        <v>43.5</v>
       </c>
       <c r="G116" t="n">
-        <v>8978.75</v>
+        <v>8979</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>8965</v>
       </c>
       <c r="F117" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="G117" t="n">
-        <v>8978.5</v>
+        <v>8978.75</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="C118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="D118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="E118" t="n">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="F118" t="n">
-        <v>29.1666</v>
+        <v>199.5</v>
       </c>
       <c r="G118" t="n">
-        <v>8978.75</v>
+        <v>8978.5</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="C119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="D119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="E119" t="n">
-        <v>8965</v>
+        <v>9000</v>
       </c>
       <c r="F119" t="n">
-        <v>34</v>
+        <v>29.1666</v>
       </c>
       <c r="G119" t="n">
-        <v>8977.5</v>
+        <v>8978.75</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9030</v>
+        <v>8965</v>
       </c>
       <c r="C120" t="n">
-        <v>9055</v>
+        <v>8965</v>
       </c>
       <c r="D120" t="n">
-        <v>9055</v>
+        <v>8965</v>
       </c>
       <c r="E120" t="n">
-        <v>8990</v>
+        <v>8965</v>
       </c>
       <c r="F120" t="n">
-        <v>240.5368</v>
+        <v>34</v>
       </c>
       <c r="G120" t="n">
-        <v>8978.333333333334</v>
+        <v>8977.5</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C121" t="n">
         <v>9055</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8970</v>
       </c>
       <c r="D121" t="n">
         <v>9055</v>
       </c>
       <c r="E121" t="n">
-        <v>8970</v>
+        <v>8990</v>
       </c>
       <c r="F121" t="n">
-        <v>5.3436</v>
+        <v>240.5368</v>
       </c>
       <c r="G121" t="n">
-        <v>8977.75</v>
+        <v>8978.333333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9060</v>
+        <v>9055</v>
       </c>
       <c r="C122" t="n">
-        <v>9060</v>
+        <v>8970</v>
       </c>
       <c r="D122" t="n">
-        <v>9060</v>
+        <v>9055</v>
       </c>
       <c r="E122" t="n">
-        <v>9060</v>
+        <v>8970</v>
       </c>
       <c r="F122" t="n">
-        <v>4.6718</v>
+        <v>5.3436</v>
       </c>
       <c r="G122" t="n">
-        <v>8979.083333333334</v>
+        <v>8977.75</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>9060</v>
       </c>
       <c r="F123" t="n">
-        <v>95.3282</v>
+        <v>4.6718</v>
       </c>
       <c r="G123" t="n">
-        <v>8980.5</v>
+        <v>8979.083333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8985</v>
+        <v>9060</v>
       </c>
       <c r="C124" t="n">
-        <v>8980</v>
+        <v>9060</v>
       </c>
       <c r="D124" t="n">
-        <v>8985</v>
+        <v>9060</v>
       </c>
       <c r="E124" t="n">
-        <v>8980</v>
+        <v>9060</v>
       </c>
       <c r="F124" t="n">
-        <v>142.8447</v>
+        <v>95.3282</v>
       </c>
       <c r="G124" t="n">
-        <v>8980.75</v>
+        <v>8980.5</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="C125" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="D125" t="n">
-        <v>8970</v>
+        <v>8985</v>
       </c>
       <c r="E125" t="n">
-        <v>8970</v>
+        <v>8980</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>142.8447</v>
       </c>
       <c r="G125" t="n">
-        <v>8980.833333333334</v>
+        <v>8980.75</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="C126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="D126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="E126" t="n">
-        <v>9045</v>
+        <v>8970</v>
       </c>
       <c r="F126" t="n">
-        <v>1.10558319</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>8982.166666666666</v>
+        <v>8980.833333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="C127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="D127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="E127" t="n">
-        <v>8970</v>
+        <v>9045</v>
       </c>
       <c r="F127" t="n">
-        <v>113.9458</v>
+        <v>1.10558319</v>
       </c>
       <c r="G127" t="n">
-        <v>8982.25</v>
+        <v>8982.166666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9030</v>
+        <v>8970</v>
       </c>
       <c r="C128" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="D128" t="n">
-        <v>9055</v>
+        <v>8970</v>
       </c>
       <c r="E128" t="n">
-        <v>9030</v>
+        <v>8970</v>
       </c>
       <c r="F128" t="n">
-        <v>399.99991681</v>
+        <v>113.9458</v>
       </c>
       <c r="G128" t="n">
-        <v>8982.583333333334</v>
+        <v>8982.25</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>9030</v>
+      </c>
+      <c r="C129" t="n">
         <v>9055</v>
-      </c>
-      <c r="C129" t="n">
-        <v>8975</v>
       </c>
       <c r="D129" t="n">
         <v>9055</v>
       </c>
       <c r="E129" t="n">
-        <v>8975</v>
+        <v>9030</v>
       </c>
       <c r="F129" t="n">
-        <v>2.80008319</v>
+        <v>399.99991681</v>
       </c>
       <c r="G129" t="n">
-        <v>8982.75</v>
+        <v>8982.583333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8970</v>
+        <v>9055</v>
       </c>
       <c r="C130" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="D130" t="n">
-        <v>8970</v>
+        <v>9055</v>
       </c>
       <c r="E130" t="n">
-        <v>8965</v>
+        <v>8975</v>
       </c>
       <c r="F130" t="n">
-        <v>71.0278</v>
+        <v>2.80008319</v>
       </c>
       <c r="G130" t="n">
-        <v>8982.583333333334</v>
+        <v>8982.75</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8985</v>
+        <v>8970</v>
       </c>
       <c r="C131" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="D131" t="n">
-        <v>8985</v>
+        <v>8970</v>
       </c>
       <c r="E131" t="n">
-        <v>8980</v>
+        <v>8965</v>
       </c>
       <c r="F131" t="n">
-        <v>28.5803</v>
+        <v>71.0278</v>
       </c>
       <c r="G131" t="n">
         <v>8982.583333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3808,30 +4203,36 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9000</v>
+        <v>8985</v>
       </c>
       <c r="C133" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="D133" t="n">
-        <v>9000</v>
+        <v>8985</v>
       </c>
       <c r="E133" t="n">
-        <v>8995</v>
+        <v>8980</v>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>28.5803</v>
       </c>
       <c r="G133" t="n">
-        <v>8982.916666666666</v>
+        <v>8982.583333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>9000</v>
       </c>
       <c r="C134" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="D134" t="n">
         <v>9000</v>
       </c>
       <c r="E134" t="n">
-        <v>9000</v>
+        <v>8995</v>
       </c>
       <c r="F134" t="n">
-        <v>9.975</v>
+        <v>30</v>
       </c>
       <c r="G134" t="n">
-        <v>8982.333333333334</v>
+        <v>8982.916666666666</v>
       </c>
       <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>9000</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5</v>
+        <v>9.975</v>
       </c>
       <c r="G135" t="n">
-        <v>8982.75</v>
+        <v>8982.333333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="C136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="D136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="E136" t="n">
-        <v>8995</v>
+        <v>9000</v>
       </c>
       <c r="F136" t="n">
-        <v>35.2394</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="n">
-        <v>8983.166666666666</v>
+        <v>8982.75</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>8995</v>
       </c>
       <c r="F137" t="n">
-        <v>318.7155</v>
+        <v>35.2394</v>
       </c>
       <c r="G137" t="n">
-        <v>8983.5</v>
+        <v>8983.166666666666</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>8995</v>
       </c>
       <c r="F138" t="n">
-        <v>7.8255</v>
+        <v>318.7155</v>
       </c>
       <c r="G138" t="n">
-        <v>8983.833333333334</v>
+        <v>8983.5</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>8995</v>
       </c>
       <c r="F139" t="n">
-        <v>33.1645</v>
+        <v>7.8255</v>
       </c>
       <c r="G139" t="n">
-        <v>8984.166666666666</v>
+        <v>8983.833333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>8995</v>
       </c>
       <c r="F140" t="n">
-        <v>76.9564</v>
+        <v>33.1645</v>
       </c>
       <c r="G140" t="n">
-        <v>8984.583333333334</v>
+        <v>8984.166666666666</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>8995</v>
       </c>
       <c r="F141" t="n">
-        <v>153.9671</v>
+        <v>76.9564</v>
       </c>
       <c r="G141" t="n">
-        <v>8985</v>
+        <v>8984.583333333334</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>8995</v>
       </c>
       <c r="F142" t="n">
-        <v>32.0555</v>
+        <v>153.9671</v>
       </c>
       <c r="G142" t="n">
-        <v>8984.583333333334</v>
+        <v>8985</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>8995</v>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>32.0555</v>
       </c>
       <c r="G143" t="n">
-        <v>8985</v>
+        <v>8984.583333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>8995</v>
       </c>
       <c r="F144" t="n">
-        <v>171.6929</v>
+        <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>8985.416666666666</v>
+        <v>8985</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>8995</v>
       </c>
       <c r="F145" t="n">
-        <v>50</v>
+        <v>171.6929</v>
       </c>
       <c r="G145" t="n">
-        <v>8984.916666666666</v>
+        <v>8985.416666666666</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>8995</v>
       </c>
       <c r="F146" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G146" t="n">
-        <v>8985.25</v>
+        <v>8984.916666666666</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>8995</v>
       </c>
       <c r="F147" t="n">
-        <v>12.7089</v>
+        <v>18</v>
       </c>
       <c r="G147" t="n">
-        <v>8985.583333333334</v>
+        <v>8985.25</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>8995</v>
       </c>
       <c r="F148" t="n">
-        <v>33.8485</v>
+        <v>12.7089</v>
       </c>
       <c r="G148" t="n">
-        <v>8985.833333333334</v>
+        <v>8985.583333333334</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>8995</v>
       </c>
       <c r="F149" t="n">
-        <v>228</v>
+        <v>33.8485</v>
       </c>
       <c r="G149" t="n">
-        <v>8986.166666666666</v>
+        <v>8985.833333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>8995</v>
       </c>
       <c r="F150" t="n">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="G150" t="n">
-        <v>8986.5</v>
+        <v>8986.166666666666</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>8995</v>
       </c>
       <c r="C151" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="D151" t="n">
         <v>8995</v>
       </c>
       <c r="E151" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="F151" t="n">
-        <v>1.462</v>
+        <v>42</v>
       </c>
       <c r="G151" t="n">
-        <v>8986.333333333334</v>
+        <v>8986.5</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="C152" t="n">
         <v>8965</v>
       </c>
       <c r="D152" t="n">
-        <v>8965</v>
+        <v>8995</v>
       </c>
       <c r="E152" t="n">
         <v>8965</v>
       </c>
       <c r="F152" t="n">
-        <v>65.3211</v>
+        <v>1.462</v>
       </c>
       <c r="G152" t="n">
-        <v>8986.166666666666</v>
+        <v>8986.333333333334</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>8965</v>
       </c>
       <c r="F153" t="n">
-        <v>9.707700000000001</v>
+        <v>65.3211</v>
       </c>
       <c r="G153" t="n">
-        <v>8986</v>
+        <v>8986.166666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8940</v>
+        <v>8965</v>
       </c>
       <c r="C154" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="D154" t="n">
-        <v>8940</v>
+        <v>8965</v>
       </c>
       <c r="E154" t="n">
-        <v>8930</v>
+        <v>8965</v>
       </c>
       <c r="F154" t="n">
-        <v>87</v>
+        <v>9.707700000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>8985.25</v>
+        <v>8986</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,21 +4853,24 @@
         <v>8940</v>
       </c>
       <c r="C155" t="n">
-        <v>8995</v>
+        <v>8930</v>
       </c>
       <c r="D155" t="n">
-        <v>8995</v>
+        <v>8940</v>
       </c>
       <c r="E155" t="n">
-        <v>8940</v>
+        <v>8930</v>
       </c>
       <c r="F155" t="n">
-        <v>89.59910000000001</v>
+        <v>87</v>
       </c>
       <c r="G155" t="n">
-        <v>8985.583333333334</v>
+        <v>8985.25</v>
       </c>
       <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>8940</v>
       </c>
       <c r="C156" t="n">
-        <v>8940</v>
+        <v>8995</v>
       </c>
       <c r="D156" t="n">
-        <v>8940</v>
+        <v>8995</v>
       </c>
       <c r="E156" t="n">
         <v>8940</v>
       </c>
       <c r="F156" t="n">
-        <v>53.9618</v>
+        <v>89.59910000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>8985</v>
+        <v>8985.583333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8995</v>
+        <v>8940</v>
       </c>
       <c r="C157" t="n">
-        <v>9050</v>
+        <v>8940</v>
       </c>
       <c r="D157" t="n">
-        <v>9050</v>
+        <v>8940</v>
       </c>
       <c r="E157" t="n">
-        <v>8995</v>
+        <v>8940</v>
       </c>
       <c r="F157" t="n">
-        <v>388.787</v>
+        <v>53.9618</v>
       </c>
       <c r="G157" t="n">
-        <v>8986.25</v>
+        <v>8985</v>
       </c>
       <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>8995</v>
+      </c>
+      <c r="C158" t="n">
         <v>9050</v>
       </c>
-      <c r="C158" t="n">
-        <v>9070</v>
-      </c>
       <c r="D158" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="E158" t="n">
-        <v>9050</v>
+        <v>8995</v>
       </c>
       <c r="F158" t="n">
-        <v>1306.1764</v>
+        <v>388.787</v>
       </c>
       <c r="G158" t="n">
-        <v>8987.833333333334</v>
+        <v>8986.25</v>
       </c>
       <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9080</v>
+        <v>9050</v>
       </c>
       <c r="C159" t="n">
         <v>9070</v>
       </c>
       <c r="D159" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="E159" t="n">
-        <v>9070</v>
+        <v>9050</v>
       </c>
       <c r="F159" t="n">
-        <v>53.9448</v>
+        <v>1306.1764</v>
       </c>
       <c r="G159" t="n">
-        <v>8989.416666666666</v>
+        <v>8987.833333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="C160" t="n">
         <v>9070</v>
       </c>
       <c r="D160" t="n">
-        <v>9070</v>
+        <v>9080</v>
       </c>
       <c r="E160" t="n">
         <v>9070</v>
       </c>
       <c r="F160" t="n">
-        <v>25</v>
+        <v>53.9448</v>
       </c>
       <c r="G160" t="n">
-        <v>8991</v>
+        <v>8989.416666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="C161" t="n">
-        <v>9095</v>
+        <v>9070</v>
       </c>
       <c r="D161" t="n">
-        <v>9095</v>
+        <v>9070</v>
       </c>
       <c r="E161" t="n">
-        <v>9080</v>
+        <v>9070</v>
       </c>
       <c r="F161" t="n">
-        <v>23.0072</v>
+        <v>25</v>
       </c>
       <c r="G161" t="n">
-        <v>8993</v>
+        <v>8991</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="C162" t="n">
-        <v>9100</v>
+        <v>9095</v>
       </c>
       <c r="D162" t="n">
-        <v>9100</v>
+        <v>9095</v>
       </c>
       <c r="E162" t="n">
-        <v>9100</v>
+        <v>9080</v>
       </c>
       <c r="F162" t="n">
-        <v>69.9671</v>
+        <v>23.0072</v>
       </c>
       <c r="G162" t="n">
-        <v>8995.083333333334</v>
+        <v>8993</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="C163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="D163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="E163" t="n">
-        <v>9155</v>
+        <v>9100</v>
       </c>
       <c r="F163" t="n">
-        <v>6.4939</v>
+        <v>69.9671</v>
       </c>
       <c r="G163" t="n">
-        <v>8998.083333333334</v>
+        <v>8995.083333333334</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="C164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="D164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="E164" t="n">
-        <v>9180</v>
+        <v>9155</v>
       </c>
       <c r="F164" t="n">
-        <v>157.9035</v>
+        <v>6.4939</v>
       </c>
       <c r="G164" t="n">
-        <v>9001.5</v>
+        <v>8998.083333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>9180</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6249</v>
+        <v>157.9035</v>
       </c>
       <c r="G165" t="n">
-        <v>9005</v>
+        <v>9001.5</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,21 +5172,24 @@
         <v>9180</v>
       </c>
       <c r="C166" t="n">
-        <v>9225</v>
+        <v>9180</v>
       </c>
       <c r="D166" t="n">
-        <v>9225</v>
+        <v>9180</v>
       </c>
       <c r="E166" t="n">
         <v>9180</v>
       </c>
       <c r="F166" t="n">
-        <v>108.7229</v>
+        <v>0.6249</v>
       </c>
       <c r="G166" t="n">
-        <v>9009.333333333334</v>
+        <v>9005</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9235</v>
+        <v>9180</v>
       </c>
       <c r="C167" t="n">
-        <v>9390</v>
+        <v>9225</v>
       </c>
       <c r="D167" t="n">
-        <v>9390</v>
+        <v>9225</v>
       </c>
       <c r="E167" t="n">
-        <v>9235</v>
+        <v>9180</v>
       </c>
       <c r="F167" t="n">
-        <v>945.2463</v>
+        <v>108.7229</v>
       </c>
       <c r="G167" t="n">
-        <v>9016.166666666666</v>
+        <v>9009.333333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9215</v>
+        <v>9235</v>
       </c>
       <c r="C168" t="n">
-        <v>9265</v>
+        <v>9390</v>
       </c>
       <c r="D168" t="n">
         <v>9390</v>
       </c>
       <c r="E168" t="n">
-        <v>9215</v>
+        <v>9235</v>
       </c>
       <c r="F168" t="n">
-        <v>49.1269</v>
+        <v>945.2463</v>
       </c>
       <c r="G168" t="n">
-        <v>9021.083333333334</v>
+        <v>9016.166666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,25 +5256,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9390</v>
+        <v>9215</v>
       </c>
       <c r="C169" t="n">
-        <v>9390</v>
+        <v>9265</v>
       </c>
       <c r="D169" t="n">
         <v>9390</v>
       </c>
       <c r="E169" t="n">
-        <v>9285</v>
+        <v>9215</v>
       </c>
       <c r="F169" t="n">
-        <v>9.699999999999999</v>
+        <v>49.1269</v>
       </c>
       <c r="G169" t="n">
-        <v>9028.166666666666</v>
+        <v>9021.083333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4776,7 +5285,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9305</v>
+        <v>9390</v>
       </c>
       <c r="C170" t="n">
         <v>9390</v>
@@ -4785,15 +5294,18 @@
         <v>9390</v>
       </c>
       <c r="E170" t="n">
-        <v>9300</v>
+        <v>9285</v>
       </c>
       <c r="F170" t="n">
-        <v>74.59910000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>9035.25</v>
+        <v>9028.166666666666</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9240</v>
+        <v>9305</v>
       </c>
       <c r="C171" t="n">
-        <v>9380</v>
+        <v>9390</v>
       </c>
       <c r="D171" t="n">
-        <v>9380</v>
+        <v>9390</v>
       </c>
       <c r="E171" t="n">
-        <v>9240</v>
+        <v>9300</v>
       </c>
       <c r="F171" t="n">
-        <v>75.09999999999999</v>
+        <v>74.59910000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>9042.166666666666</v>
+        <v>9035.25</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="C172" t="n">
-        <v>9275</v>
+        <v>9380</v>
       </c>
       <c r="D172" t="n">
-        <v>9275</v>
+        <v>9380</v>
       </c>
       <c r="E172" t="n">
-        <v>9130</v>
+        <v>9240</v>
       </c>
       <c r="F172" t="n">
-        <v>21.3359</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>9047.333333333334</v>
+        <v>9042.166666666666</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9260</v>
+        <v>9130</v>
       </c>
       <c r="C173" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="D173" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="E173" t="n">
-        <v>9260</v>
+        <v>9130</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1</v>
+        <v>21.3359</v>
       </c>
       <c r="G173" t="n">
-        <v>9051.916666666666</v>
+        <v>9047.333333333334</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9120</v>
+        <v>9260</v>
       </c>
       <c r="C174" t="n">
-        <v>9000</v>
+        <v>9260</v>
       </c>
       <c r="D174" t="n">
-        <v>9120</v>
+        <v>9260</v>
       </c>
       <c r="E174" t="n">
-        <v>9000</v>
+        <v>9260</v>
       </c>
       <c r="F174" t="n">
-        <v>95.2338</v>
+        <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>9052.5</v>
+        <v>9051.916666666666</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,544 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9200</v>
+        <v>9120</v>
       </c>
       <c r="C175" t="n">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="D175" t="n">
-        <v>9200</v>
+        <v>9120</v>
       </c>
       <c r="E175" t="n">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1</v>
+        <v>95.2338</v>
       </c>
       <c r="G175" t="n">
-        <v>9056.416666666666</v>
+        <v>9052.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9135</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9120</v>
-      </c>
-      <c r="F176" t="n">
-        <v>124.0021</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9060</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F177" t="n">
-        <v>93.6694</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9063.416666666666</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9170</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9175</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9175</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9170</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9066.333333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9175</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9175</v>
-      </c>
-      <c r="F179" t="n">
-        <v>55.8657</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9069.916666666666</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9190</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9245</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9245</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9190</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9073.083333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9145</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9100</v>
-      </c>
-      <c r="F181" t="n">
-        <v>71.6874</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9077.583333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9150</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9060</v>
-      </c>
-      <c r="F182" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9080.416666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9105</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9185</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9195</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F183" t="n">
-        <v>234.4358</v>
-      </c>
-      <c r="G183" t="n">
-        <v>9082.5</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9230</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9230</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F184" t="n">
-        <v>239.6645</v>
-      </c>
-      <c r="G184" t="n">
-        <v>9086.666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9230</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9090</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9365</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9090</v>
-      </c>
-      <c r="F185" t="n">
-        <v>360.5</v>
-      </c>
-      <c r="G185" t="n">
-        <v>9088.666666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>9093.416666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9165</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4.9337</v>
-      </c>
-      <c r="G187" t="n">
-        <v>9096.666666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9160</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9160</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>52.66</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9098.25</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F189" t="n">
-        <v>22.2451</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9101.666666666666</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9225</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9225</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F190" t="n">
-        <v>319</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9106</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.2236</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9109.333333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F192" t="n">
-        <v>24.9207</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9112.666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9180</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6.5858</v>
-      </c>
-      <c r="G193" t="n">
-        <v>9115.75</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9225</v>
-      </c>
-      <c r="F194" t="n">
-        <v>13.831</v>
-      </c>
-      <c r="G194" t="n">
-        <v>9119.5</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9125</v>
-      </c>
-      <c r="F195" t="n">
-        <v>25.6179</v>
-      </c>
-      <c r="G195" t="n">
-        <v>9121.583333333334</v>
-      </c>
-      <c r="H195" t="n">
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
